--- a/data/KKDCurrent.xlsx
+++ b/data/KKDCurrent.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stand2" r:id="rId8" sheetId="5"/>
+    <sheet name="Wedstrijden2" r:id="rId9" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="508">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1275,6 +1277,270 @@
   </si>
   <si>
     <t xml:space="preserve">PSV II - FC Emmen</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>xGF</t>
+  </si>
+  <si>
+    <t>xGA</t>
+  </si>
+  <si>
+    <t>xGD</t>
+  </si>
+  <si>
+    <t>xPts</t>
+  </si>
+  <si>
+    <t>xRank</t>
+  </si>
+  <si>
+    <t>xT_for</t>
+  </si>
+  <si>
+    <t>xT_against</t>
+  </si>
+  <si>
+    <t>box_for</t>
+  </si>
+  <si>
+    <t>box_against</t>
+  </si>
+  <si>
+    <t>xT_for.90</t>
+  </si>
+  <si>
+    <t>xT_against.90</t>
+  </si>
+  <si>
+    <t>box_for.90</t>
+  </si>
+  <si>
+    <t>box_against.90</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>TOP Oss</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>FC Utrecht II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>FC Eindhoven</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>HomeName</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>AwayName</t>
+  </si>
+  <si>
+    <t>Home_xG</t>
+  </si>
+  <si>
+    <t>Away_xG</t>
+  </si>
+  <si>
+    <t>home_win_prob</t>
+  </si>
+  <si>
+    <t>draw_prob</t>
+  </si>
+  <si>
+    <t>away_win_prob</t>
+  </si>
+  <si>
+    <t>box_home</t>
+  </si>
+  <si>
+    <t>box_away</t>
+  </si>
+  <si>
+    <t>xt_home</t>
+  </si>
+  <si>
+    <t>xt_away</t>
+  </si>
+  <si>
+    <t>home_odds</t>
+  </si>
+  <si>
+    <t>draw_odds</t>
+  </si>
+  <si>
+    <t>away_odds</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>79.57%</t>
+  </si>
+  <si>
+    <t>27.79%</t>
+  </si>
+  <si>
+    <t>57.46%</t>
+  </si>
+  <si>
+    <t>10.68%</t>
+  </si>
+  <si>
+    <t>74.82%</t>
+  </si>
+  <si>
+    <t>7.35%</t>
+  </si>
+  <si>
+    <t>66.66%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>29.54%</t>
+  </si>
+  <si>
+    <t>25.34%</t>
+  </si>
+  <si>
+    <t>37.13%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>29.74%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>52.19%</t>
+  </si>
+  <si>
+    <t>10.09%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
   </si>
 </sst>
 </file>
@@ -35863,4 +36129,1909 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M1" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T1" t="s">
+        <v>439</v>
+      </c>
+      <c r="U1" t="s">
+        <v>440</v>
+      </c>
+      <c r="V1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="R2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="V2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="R3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="V3" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="V4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="R6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="V6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="R7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="V7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="R8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="V8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="R9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="V9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="R10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="V10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="R11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="R16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="V16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="V17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="R18" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="V18" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="V19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O1" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5" t="s">
+        <v>502</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I8" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" t="s">
+        <v>505</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9" t="s">
+        <v>506</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" t="s">
+        <v>507</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/KKDCurrent.xlsx
+++ b/data/KKDCurrent.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Stand" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Player xG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stand2" sheetId="9" state="visible" r:id="rId6"/>
+    <sheet name="Wedstrijden2" r:id="rId10" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="648">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1563,6 +1565,402 @@
   </si>
   <si>
     <t xml:space="preserve">PSV II - FC Emmen</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>xGF</t>
+  </si>
+  <si>
+    <t>xGA</t>
+  </si>
+  <si>
+    <t>xGD</t>
+  </si>
+  <si>
+    <t>xPts</t>
+  </si>
+  <si>
+    <t>xRank</t>
+  </si>
+  <si>
+    <t>xT_for</t>
+  </si>
+  <si>
+    <t>xT_against</t>
+  </si>
+  <si>
+    <t>box_for</t>
+  </si>
+  <si>
+    <t>box_against</t>
+  </si>
+  <si>
+    <t>xT_for.90</t>
+  </si>
+  <si>
+    <t>xT_against.90</t>
+  </si>
+  <si>
+    <t>box_for.90</t>
+  </si>
+  <si>
+    <t>box_against.90</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>TOP Oss</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Cambuur Leeuwarden</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>FC Utrecht II</t>
+  </si>
+  <si>
+    <t>Almere City FC</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>FC Eindhoven</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>HomeName</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>AwayName</t>
+  </si>
+  <si>
+    <t>Home_xG</t>
+  </si>
+  <si>
+    <t>Away_xG</t>
+  </si>
+  <si>
+    <t>home_win_prob</t>
+  </si>
+  <si>
+    <t>draw_prob</t>
+  </si>
+  <si>
+    <t>away_win_prob</t>
+  </si>
+  <si>
+    <t>box_home</t>
+  </si>
+  <si>
+    <t>box_away</t>
+  </si>
+  <si>
+    <t>xt_home</t>
+  </si>
+  <si>
+    <t>xt_away</t>
+  </si>
+  <si>
+    <t>home_odds</t>
+  </si>
+  <si>
+    <t>draw_odds</t>
+  </si>
+  <si>
+    <t>away_odds</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>79.57%</t>
+  </si>
+  <si>
+    <t>27.79%</t>
+  </si>
+  <si>
+    <t>57.46%</t>
+  </si>
+  <si>
+    <t>10.68%</t>
+  </si>
+  <si>
+    <t>74.82%</t>
+  </si>
+  <si>
+    <t>7.35%</t>
+  </si>
+  <si>
+    <t>66.66%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>45.68%</t>
+  </si>
+  <si>
+    <t>33.85%</t>
+  </si>
+  <si>
+    <t>57.69%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>21.76%</t>
+  </si>
+  <si>
+    <t>79.15%</t>
+  </si>
+  <si>
+    <t>46.37%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>12.72%</t>
+  </si>
+  <si>
+    <t>29.54%</t>
+  </si>
+  <si>
+    <t>25.34%</t>
+  </si>
+  <si>
+    <t>37.13%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>29.74%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>24.55%</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>29.46%</t>
+  </si>
+  <si>
+    <t>20.52%</t>
+  </si>
+  <si>
+    <t>23.46%</t>
+  </si>
+  <si>
+    <t>21.17%</t>
+  </si>
+  <si>
+    <t>13.15%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>52.19%</t>
+  </si>
+  <si>
+    <t>10.09%</t>
+  </si>
+  <si>
+    <t>79.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>27.56%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>59.62%</t>
+  </si>
+  <si>
+    <t>20.01%</t>
+  </si>
+  <si>
+    <t>36.69%</t>
+  </si>
+  <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>53.31%</t>
+  </si>
+  <si>
+    <t>57.07%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>79.05%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xt_away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT_against.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_for.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_against.90</t>
   </si>
 </sst>
 </file>
@@ -2514,6 +2912,1026 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s">
+        <v>605</v>
+      </c>
+      <c r="J7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
+        <v>624</v>
+      </c>
+      <c r="K8" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" t="s">
+        <v>607</v>
+      </c>
+      <c r="J9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s">
+        <v>608</v>
+      </c>
+      <c r="J10" t="s">
+        <v>626</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J11" t="s">
+        <v>627</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J12" t="s">
+        <v>628</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I14" t="s">
+        <v>612</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>595</v>
+      </c>
+      <c r="I15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>631</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>596</v>
+      </c>
+      <c r="I16" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>557</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>597</v>
+      </c>
+      <c r="I17" t="s">
+        <v>615</v>
+      </c>
+      <c r="J17" t="s">
+        <v>633</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H18" t="s">
+        <v>598</v>
+      </c>
+      <c r="I18" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" t="s">
+        <v>634</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>599</v>
+      </c>
+      <c r="I19" t="s">
+        <v>617</v>
+      </c>
+      <c r="J19" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -59801,4 +61219,1438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>641</v>
+      </c>
+      <c r="R1" t="s">
+        <v>642</v>
+      </c>
+      <c r="S1" t="s">
+        <v>643</v>
+      </c>
+      <c r="T1" t="s">
+        <v>644</v>
+      </c>
+      <c r="U1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V1" t="s">
+        <v>646</v>
+      </c>
+      <c r="W1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="R2" t="n">
+        <v>94</v>
+      </c>
+      <c r="S2" t="n">
+        <v>31</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.9645</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5715</v>
+      </c>
+      <c r="V2" t="n">
+        <v>47</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>61</v>
+      </c>
+      <c r="S3" t="n">
+        <v>48</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="R4" t="n">
+        <v>55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.4825</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4125</v>
+      </c>
+      <c r="V4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.282</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="R5" t="n">
+        <v>56</v>
+      </c>
+      <c r="S5" t="n">
+        <v>75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5615</v>
+      </c>
+      <c r="V5" t="n">
+        <v>28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="R6" t="n">
+        <v>35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="V6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="R7" t="n">
+        <v>42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="R8" t="n">
+        <v>61</v>
+      </c>
+      <c r="S8" t="n">
+        <v>61</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4095</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.204</v>
+      </c>
+      <c r="R9" t="n">
+        <v>44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>72</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.4995</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="V9" t="n">
+        <v>22</v>
+      </c>
+      <c r="W9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R10" t="n">
+        <v>58</v>
+      </c>
+      <c r="S10" t="n">
+        <v>39</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9345</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29</v>
+      </c>
+      <c r="W10" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="R11" t="n">
+        <v>37</v>
+      </c>
+      <c r="S11" t="n">
+        <v>42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.2825</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.0035</v>
+      </c>
+      <c r="V11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="R12" t="n">
+        <v>67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>51</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.9305</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.1205</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="R13" t="n">
+        <v>68</v>
+      </c>
+      <c r="S13" t="n">
+        <v>56</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="V13" t="n">
+        <v>34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="R14" t="n">
+        <v>33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="R15" t="n">
+        <v>26</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="V15" t="n">
+        <v>26</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="n">
+        <v>48</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R17" t="n">
+        <v>42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>55</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="V17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W17" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="R18" t="n">
+        <v>27</v>
+      </c>
+      <c r="S18" t="n">
+        <v>43</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.7985</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.7575</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="R19" t="n">
+        <v>30</v>
+      </c>
+      <c r="S19" t="n">
+        <v>34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="V19" t="n">
+        <v>30</v>
+      </c>
+      <c r="W19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="R20" t="n">
+        <v>27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>46</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>